--- a/templates/QARSF/RSTK-9619-Derived Component Receipt Reversal.xlsx
+++ b/templates/QARSF/RSTK-9619-Derived Component Receipt Reversal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6019C4A5-A17E-4E8E-AE7D-A6737ACD7D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3784EA94-7DDA-4C45-B3EA-F87EDA0F99A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Disassembly item name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Component Item</t>
   </si>
   <si>
-    <t>MS-Disassembly (NO Track)</t>
-  </si>
-  <si>
     <t>MS-serial and lot tracked (mfg lot and serial)</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Lot Exp Date</t>
   </si>
   <si>
-    <t>Ms-child2 (Lot track)</t>
-  </si>
-  <si>
     <t>Ms-child3 (Serial item)</t>
   </si>
   <si>
@@ -137,32 +131,41 @@
     <t>Add consumable components?</t>
   </si>
   <si>
-    <t>Mayur Suryawanshi</t>
-  </si>
-  <si>
     <t>Pro-Disassembley (Lot and serial track)</t>
   </si>
   <si>
     <t>Pro-Disassembley Serial (Serial track)</t>
   </si>
   <si>
-    <t>Pro-Disassembley Lot (Lot track)</t>
-  </si>
-  <si>
     <t>Project Charge Code</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>10 (Denver)</t>
+  </si>
+  <si>
+    <t>OH (On Hand Loc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,9 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,108 +506,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9D0080-B4D2-4351-9E4B-3E7D4A08CBFC}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -613,10 +593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AE76E0-FB9A-4E01-B002-1F029404FF4C}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,62 +618,56 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1">
-        <v>44966</v>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -701,126 +675,53 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44966</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1">
-        <v>44966</v>
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="J5" s="1">
         <v>44966</v>
       </c>
     </row>
@@ -832,10 +733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A55D77-3A07-4BB8-BFD8-EAD99132AF4E}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,47 +759,53 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -913,15 +820,15 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -936,29 +843,35 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -973,15 +886,15 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -996,127 +909,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>1E-3</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.3</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>1E-3</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.3</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
